--- a/Output_testing/R1_201907/Country/HKD/MN/BANGLADESH_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BANGLADESH_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3322.582974</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>28.60445322155402</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3778.751226</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>32.14090847397319</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>3167.585735</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>22.15075328400892</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1634.14338</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>26.33245987359548</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-8.943603415738387</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1158.133683</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.970490133402933</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1380.27859</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.7402298210395</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1495.643217</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.4589509715886</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>619.564342</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.983611826537269</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-25.18055794025728</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1032.847685</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.891890291909039</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1006.602116</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.561851401451253</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1097.305313</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.673395860110853</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>610.421018</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.836277011680764</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0.7079556860722924</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>949.831047</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>8.177191650260704</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>874.498249</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>7.438216093286373</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>891.83135</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.236527708316193</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>434.280476</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.997961958610967</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-15.52680345710127</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1109.835356</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>9.554684946245304</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>801.539454</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>6.817650776275909</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>890.082104</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.2242953269947</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>421.430717</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.790901937199092</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-19.90598396688268</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>467.426757</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.024124276123856</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>417.248398</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.54898795103426</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>423.331491</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.960333894322404</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>230.997321</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.72227294164393</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0.1751072509470042</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>394.549327</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.396715102702239</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>416.623499</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.543672750227633</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>432.382143</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.023624607276515</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>215.533978</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.473097830057856</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-12.93821387589882</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>259.009308</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.229837356240265</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>274.031373</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.330827501421288</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>326.764777</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.285048160576842</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>193.386169</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.116209751007806</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>13.31691304222762</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>455.24773</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.919273799602531</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>359.406458</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.057002004273485</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>462.502907</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.234257457626139</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>184.232334</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.968705562711297</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-28.96458646291846</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>273.266667</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.352580403372488</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>285.653771</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.429684083404197</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>339.218072</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.372133369374823</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>183.540658</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.957559949212235</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-2.873630558291107</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>2192.883819</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>18.87875881858661</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2162.194552</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>18.39096914361291</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>4773.479367</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>33.38067935980401</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1478.283222</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>23.82094135774331</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>5.655178230097735</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,451 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>14.314089</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>8.540046078852438</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.582002</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>1.220468339089341</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.353495</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>1.345485325855184</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>50.428888</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>53.13607427674497</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>35.628039</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>21.25633665957727</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>31.777122</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>24.51512154117338</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>35.257045</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>35.04840186370537</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>24.45211</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>25.76477857657973</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>44.79594682130448</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>15.783744</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>9.416869006250463</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>15.115652</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>11.66128405064752</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>12.004831</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>11.93378915317117</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>7.134398</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>7.517395625456996</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>44.67128761618784</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>72.016024</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>42.96607093722437</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>59.02616</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>45.53695852345427</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>37.583471</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>37.36106060621123</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>6.642643</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.999241622022283</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-79.32119891815699</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>3.034258</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.810293560081025</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.733262</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.337161011393582</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>2.300433</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.286819563140624</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.75996</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.854440361328215</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>20.09329277363128</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.575764</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.9401294884639068</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.606061</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.4675583608976633</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>1.261361</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.253896553815139</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>1.415393</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.491375887145973</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>178.6261540581508</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF RUBBER, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.08303254876269468</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.3052061080388447</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>0.814337</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.8580532515073834</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>165.2364806545438</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SYNTHETIC RUBBER; RECLAIMED RUBBER; WASTE, PAIRINGS AND SCRAP OF UNHARDENED RUBBER</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>0.842556</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.5026842479471516</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>1.46016</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.126470794603732</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>0.94614</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.9405409596671018</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>0.77532</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.8169416923935724</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>218.5897435897436</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.2946100694034621</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.1444864506005842</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>1.172111</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.165174714922069</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.3018602292970683</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-61.74234128361956</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>2.808346</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.675510348256248</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.556135</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.200512704060293</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0.690574</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.6864873408598612</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.2420984767723221</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-58.30009038210942</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>20.975587</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>12.51441705518096</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>16.572184</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>12.78495594921053</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>7.718816</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>7.673137810613419</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>0.965888</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.017740000751487</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-85.07290013864031</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1744,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3322.582974</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>29.02325393822876</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3778.751226</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>32.49922209960325</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>3167.585735</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>22.30767830105435</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>1634.14338</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>26.74141492900357</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-8.943603415738387</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1158.097387</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>10.11615204529733</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1380.25307</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.87089289364857</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1495.53662</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>10.53229576007235</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>619.5564419999999</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.13853257323059</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-25.17264784179984</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1017.063941</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.884204025015482</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>991.486464</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.527298272661225</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1085.300482</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.643213487459158</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>603.28662</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.872290292260709</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>0.347337398998171</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>877.815023</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.667844120879767</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>815.472089</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>7.013483278308417</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>854.247879</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.016028757652555</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>427.637833</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.997942084857288</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-11.27505357020898</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1109.835356</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>9.694576062921977</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>801.292963</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.89153543430069</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>890.082104</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>6.268390786763536</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>421.427217</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.896310452374274</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-19.90664915108689</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>391.515069</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.419942062289685</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>414.890237</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.568271408407353</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>430.08171</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.02884443626507</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>213.774018</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.498236315333773</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-13.13491315405911</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>431.798718</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.771825697291263</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>385.471276</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.315253072376103</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>388.074446</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.733008866207654</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>206.545211</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.379942822978968</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-3.350877727738477</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>258.276968</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.256087534101649</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>272.834694</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.346519997340331</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>326.752914</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.301152833498311</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>193.376169</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.164442261247674</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>13.31105342395045</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>455.181216</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.976075277354309</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>359.406458</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.091082107286025</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>462.502907</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.257170263351517</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>184.166377</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.013731575578331</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-28.99001784441888</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>273.266667</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.387024772972425</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>285.653771</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.456770713944376</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>339.218072</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.388938534628138</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>183.540658</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>3.003492197802336</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-2.873630558291107</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2152.569655</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>18.80301446364736</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>2141.692903</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>18.41967072212365</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>4760.148307</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>33.52327797304736</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1423.454508</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>23.29366449533249</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>2.375310847915513</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2202,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>295.373282</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>19.91748347805888</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>229.36406</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>18.05749252531178</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>232.025509</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>17.42327696998262</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>168.576639</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>20.87732933572764</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>28.44898085420549</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>362.102522</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>24.41714074632671</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>252.057619</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>19.84412279343321</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>324.825815</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>24.39184452665218</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>134.45478</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.65151671948333</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-31.68003680701802</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>244.318865</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>16.47480409895569</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>181.679473</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>14.30335565955748</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>212.949232</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.99079974297605</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>127.359104</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>15.77275459923713</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>1.567291790790604</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>64.34420299999999</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>4.338830484205292</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>63.947943</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.034526781273245</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>67.61032</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.076999233688376</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>83.320753</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>10.31883665020642</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>122.3645680048194</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>116.550999</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>7.85921658592586</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>94.234064</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>7.418908203446309</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>99.851645</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>7.498067235113276</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>63.163319</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>7.822444560071119</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>7.550208545515025</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>59.920773</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.040551664452901</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>70.207069</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.527298495202553</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>57.028307</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.282373917732462</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>40.943761</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.070669267764445</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>7.602642545424954</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>9.689866</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.6534028557112502</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>21.683196</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.707085886493595</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>24.557279</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.84405704135806</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>35.304898</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.372325768757745</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>235.4739684561387</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>65.77457200000001</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>4.435282508342762</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>72.85342900000001</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>5.735642496086057</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>70.887113</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>5.323060420056899</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>30.871427</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.82326372364604</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-16.79014730913204</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>38.731995</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.611759145110352</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>47.10661</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.708633593108602</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>49.029613</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.681735386388316</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>30.431466</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.768776869795098</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>20.18447408299082</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>49.565727</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.342294678502697</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>59.567673</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>4.689674615751552</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>57.449011</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.313965454137106</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>29.894903</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.702326366766822</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-2.531944325622548</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>176.612144</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>11.9092337544076</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>177.486625</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>13.97325895033561</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>135.484604</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>10.17382007191466</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>63.141611</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>7.819756138544219</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-15.60369420231954</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
